--- a/frontend/web/excel/Davlat nazorati.xlsx
+++ b/frontend/web/excel/Davlat nazorati.xlsx
@@ -641,7 +641,6 @@
       <c r="U4" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="E2:F3"/>
